--- a/public/formatos/terceros/Formato_subida_de_Terceros.xlsx
+++ b/public/formatos/terceros/Formato_subida_de_Terceros.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollador\Desktop\CRM\Ordenes de compra\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\TCF-CRM\public\formatos\terceros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCB652-B25F-4BBA-8D4D-EC9DFE6CEFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AAF65-BE35-47F3-BC58-4D48513AC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info Terceros" sheetId="1" r:id="rId1"/>
-    <sheet name="Listas" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Listas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Nombres</t>
   </si>
@@ -286,13 +286,40 @@
   </si>
   <si>
     <t>SANANDRES</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>TRANSPORTE</t>
+  </si>
+  <si>
+    <t>COORDINADOR</t>
+  </si>
+  <si>
+    <t>LOGISTICO</t>
+  </si>
+  <si>
+    <t>BRANDING</t>
+  </si>
+  <si>
+    <t>PROMOTORIA</t>
+  </si>
+  <si>
+    <t>ANIMADOR</t>
+  </si>
+  <si>
+    <t>COMPRA</t>
+  </si>
+  <si>
+    <t>ALQUILER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +343,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,6 +380,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -682,23 +719,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -715,6 +753,9 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -722,10 +763,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{795725B9-62E7-4244-A92C-BC0F0AF500E0}">
           <x14:formula1>
             <xm:f>Listas!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64C95C98-5363-45B7-8A8C-B94013C3CC5A}">
+          <x14:formula1>
+            <xm:f>Listas!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
@@ -737,93 +784,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAF7A85-6128-4845-8F69-260A7DEE4AA6}">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
